--- a/StructureDefinition-MyPatient.xlsx
+++ b/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T20:35:05-04:00</t>
+    <t>2025-07-08T20:54:38-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MyPatient.xlsx
+++ b/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T20:54:38-04:00</t>
+    <t>2025-07-08T21:00:57-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MyPatient.xlsx
+++ b/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T21:00:57-04:00</t>
+    <t>2025-07-08T21:05:27-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MyPatient.xlsx
+++ b/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T21:05:27-04:00</t>
+    <t>2025-07-08T21:14:34-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MyPatient.xlsx
+++ b/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T21:14:34-04:00</t>
+    <t>2025-07-08T21:22:48-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MyPatient.xlsx
+++ b/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T21:22:48-04:00</t>
+    <t>2025-07-09T06:15:13-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MyPatient.xlsx
+++ b/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T06:15:13-04:00</t>
+    <t>2025-07-09T06:51:00-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MyPatient.xlsx
+++ b/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T06:51:00-04:00</t>
+    <t>2025-07-09T07:07:13-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MyPatient.xlsx
+++ b/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T07:07:13-04:00</t>
+    <t>2025-07-09T07:31:42-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MyPatient.xlsx
+++ b/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T07:31:42-04:00</t>
+    <t>2025-07-09T08:42:39-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
